--- a/data_central.xlsx
+++ b/data_central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhz/08-个人文件/国企研究院/202507国资委数据/可视化开发/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1022540F-7913-B944-A296-CE0B8BF7CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3BD5B9-10C6-274C-9DA1-9CA930046C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>表单</t>
   </si>
@@ -194,6 +194,9 @@
   <si>
     <t>万元/人</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -586,7 +589,7 @@
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,8 +617,11 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -643,8 +649,11 @@
       <c r="I2">
         <v>4129.0843749999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>4045.6937499999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -672,8 +681,11 @@
       <c r="I3">
         <v>3892.4958333333329</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>3814.9729166666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -701,8 +713,11 @@
       <c r="I4">
         <v>269.09062499999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>271.91979166666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -730,8 +745,11 @@
       <c r="I5">
         <v>268.05208333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>268.45937499999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -759,8 +777,11 @@
       <c r="I6">
         <v>203.39583333333334</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>201.82291666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -788,8 +809,11 @@
       <c r="I7">
         <v>13.748958333333334</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>13.505208333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -817,8 +841,11 @@
       <c r="I8">
         <v>2.0895833333333331</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>2.1802083333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -846,8 +873,11 @@
       <c r="I9">
         <v>4.7302083333333336</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>4.7437499999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -875,8 +905,11 @@
       <c r="I10">
         <v>383.58229166666666</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>395.75104166666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -904,8 +937,11 @@
       <c r="I11">
         <v>1093.9833333333333</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>1114.7437499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -933,8 +969,11 @@
       <c r="I12">
         <v>112.621875</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>113.25625000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -962,8 +1001,11 @@
       <c r="I13">
         <v>1.45625</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>1.6156249999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -991,8 +1033,11 @@
       <c r="I14">
         <v>264.00208333333336</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>264.09270833333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1017,8 +1062,11 @@
       <c r="I15">
         <v>1.7947916666666668</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>3.4010416666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1046,8 +1094,11 @@
       <c r="I16">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1075,8 +1126,11 @@
       <c r="I17">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1104,8 +1158,11 @@
       <c r="I18">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1133,8 +1190,11 @@
       <c r="I19">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1162,8 +1222,11 @@
       <c r="I20">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1191,8 +1254,11 @@
       <c r="I21">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1220,8 +1286,11 @@
       <c r="I22">
         <v>94.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1249,8 +1318,11 @@
       <c r="I23">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1278,8 +1350,11 @@
       <c r="I24">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1292,8 +1367,11 @@
       <c r="I25">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1321,8 +1399,11 @@
       <c r="I26">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1350,8 +1431,11 @@
       <c r="I27">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1379,8 +1463,11 @@
       <c r="I28">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1408,8 +1495,11 @@
       <c r="I29">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1437,8 +1527,11 @@
       <c r="I30">
         <v>652.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>702.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1466,8 +1559,11 @@
       <c r="I31">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1591,11 @@
       <c r="I32">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1524,8 +1623,11 @@
       <c r="I33">
         <v>78.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1553,8 +1655,11 @@
       <c r="I34">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1581,6 +1686,9 @@
       </c>
       <c r="I35">
         <v>9.9</v>
+      </c>
+      <c r="J35">
+        <v>10.4</v>
       </c>
     </row>
   </sheetData>
